--- a/Code/Plots/energy generation.xlsx
+++ b/Code/Plots/energy generation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24c4bf95f6187469/Uni/Speciale/Thesis/Code/Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C420E006-DD69-475B-84FC-476BD14F4FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{C420E006-DD69-475B-84FC-476BD14F4FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21A8FCF8-FAB1-4F28-8732-03BCDF0435C9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25A82A8C-8C44-4990-A510-024C1255F1EB}"/>
   </bookViews>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C1997B-6853-47E2-B241-9B74D62BEFF2}">
   <dimension ref="K10:AE65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U49" sqref="U49"/>
+    <sheetView tabSelected="1" topLeftCell="O30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +658,7 @@
         <v>545</v>
       </c>
       <c r="O28">
-        <f t="shared" ref="O28:O33" si="0">N28-N27</f>
+        <f t="shared" ref="O28:O31" si="0">N28-N27</f>
         <v>115</v>
       </c>
       <c r="P28" t="s">
@@ -765,7 +765,7 @@
       <c r="AA39" t="s">
         <v>39</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AB39" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -773,7 +773,7 @@
       <c r="N40" t="s">
         <v>25</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O40" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AB40">
@@ -804,7 +804,7 @@
         <v>1058</v>
       </c>
       <c r="AD41">
-        <f>AC41/$AC$51*100</f>
+        <f t="shared" ref="AD41:AD50" si="3">AC41/$AC$51*100</f>
         <v>1.9227623807360292</v>
       </c>
     </row>
@@ -836,7 +836,7 @@
         <v>3962</v>
       </c>
       <c r="AD42">
-        <f>AC42/$AC$51*100</f>
+        <f t="shared" si="3"/>
         <v>7.2003634711494779</v>
       </c>
     </row>
@@ -851,7 +851,7 @@
         <v>88.9</v>
       </c>
       <c r="P43">
-        <f t="shared" ref="P43:P51" si="3">O43/$O$53*100</f>
+        <f t="shared" ref="P43:P51" si="4">O43/$O$53*100</f>
         <v>16.378039793662492</v>
       </c>
       <c r="Q43" t="s">
@@ -874,7 +874,7 @@
         <v>2518</v>
       </c>
       <c r="AD43">
-        <f>AC43/$AC$51*100</f>
+        <f t="shared" si="3"/>
         <v>4.576101771921854</v>
       </c>
       <c r="AE43" t="s">
@@ -889,7 +889,7 @@
         <v>30.5</v>
       </c>
       <c r="P44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.6190125276344869</v>
       </c>
       <c r="Q44" t="s">
@@ -909,7 +909,7 @@
         <v>7458</v>
       </c>
       <c r="AD44">
-        <f>AC44/$AC$51*100</f>
+        <f t="shared" si="3"/>
         <v>13.553839164016356</v>
       </c>
       <c r="AE44" t="s">
@@ -925,7 +925,7 @@
         <v>101.8</v>
       </c>
       <c r="P45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.754605747973468</v>
       </c>
       <c r="Q45" t="s">
@@ -946,7 +946,7 @@
         <v>3856</v>
       </c>
       <c r="AD45">
-        <f>AC45/$AC$51*100</f>
+        <f t="shared" si="3"/>
         <v>7.007723761926397</v>
       </c>
       <c r="AE45" t="s">
@@ -961,7 +961,7 @@
         <v>31.8</v>
       </c>
       <c r="P46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8585114222549732</v>
       </c>
       <c r="Q46" t="s">
@@ -981,7 +981,7 @@
         <v>13883</v>
       </c>
       <c r="AD46">
-        <f>AC46/$AC$51*100</f>
+        <f t="shared" si="3"/>
         <v>25.230349840981368</v>
       </c>
       <c r="AE46" t="s">
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S47">
@@ -1013,7 +1013,7 @@
         <v>914</v>
       </c>
       <c r="AD47">
-        <f>AC47/$AC$51*100</f>
+        <f t="shared" si="3"/>
         <v>1.6610631531122215</v>
       </c>
       <c r="AE47" t="s">
@@ -1028,7 +1028,7 @@
         <v>60.6</v>
       </c>
       <c r="P48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.164333087693439</v>
       </c>
       <c r="Q48" t="s">
@@ -1048,7 +1048,7 @@
         <v>18957</v>
       </c>
       <c r="AD48">
-        <f>AC48/$AC$51*100</f>
+        <f t="shared" si="3"/>
         <v>34.451612903225808</v>
       </c>
       <c r="AE48" t="s">
@@ -1064,7 +1064,7 @@
         <v>60.699999999999996</v>
       </c>
       <c r="P49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.182756079587323</v>
       </c>
       <c r="Q49" t="s">
@@ -1085,7 +1085,7 @@
         <v>1123</v>
       </c>
       <c r="AD49">
-        <f>AC49/$AC$51*100</f>
+        <f t="shared" si="3"/>
         <v>2.0408905043162195</v>
       </c>
       <c r="AE49" t="s">
@@ -1100,7 +1100,7 @@
         <v>42.2</v>
       </c>
       <c r="P50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.774502579218864</v>
       </c>
       <c r="Q50" t="s">
@@ -1120,7 +1120,7 @@
         <v>1296</v>
       </c>
       <c r="AD50">
-        <f>AC50/$AC$51*100</f>
+        <f t="shared" si="3"/>
         <v>2.3552930486142665</v>
       </c>
       <c r="AE50" t="s">
@@ -1136,7 +1136,7 @@
         <v>17.2</v>
       </c>
       <c r="P51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1687546057479725</v>
       </c>
       <c r="Q51" t="s">
@@ -1313,8 +1313,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="P24" r:id="rId1" xr:uid="{228BE70E-1F87-47FD-A323-17CA26206EE7}"/>
+    <hyperlink ref="O40" r:id="rId2" xr:uid="{696E5304-EBCD-469D-8BF9-5DAFA47C43A2}"/>
+    <hyperlink ref="AB39" r:id="rId3" xr:uid="{0318EFA9-2BA9-4812-B182-1A4080FF4FAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>